--- a/Parcial 2/01 Base de datos/04 Funciones de bases de datos/Funciones de bases de datos.xlsx
+++ b/Parcial 2/01 Base de datos/04 Funciones de bases de datos/Funciones de bases de datos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmond\Documents\ITAM\Semestre 10\Herramientas Computacionales para Produccion Empresarial\hcp-repo\Parcial 2\01 Base de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmond\Documents\ITAM\Semestre 10\Herramientas Computacionales para Produccion Empresarial\hcp-repo\Parcial 2\01 Base de datos\04 Funciones de bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82BB1D4E-7566-4C19-AA9D-34C8CF527DE9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1422E6-45FF-4F45-B0E0-806196E1E7B5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="8235" xr2:uid="{2315F44C-4382-4031-932B-6F9E823AEBD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Funciones de bases de datos" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37863A23-C3F4-4EE7-BE6B-8D3185E17285}">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
